--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA40C12-6F71-4A5C-9665-B8F6AA2F62EC}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6882072-E204-4185-BBBF-6A6EC1E20933}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal_Barras_Matias!$A$5:$HI$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal_Barras_Matias!$B:$D,Journal_Barras_Matias!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_Barras_Matias!$A$1:$D$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_Barras_Matias!$A$1:$D$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -126,13 +126,22 @@
     <t>Création du kanban</t>
   </si>
   <si>
-    <t>Kickof</t>
-  </si>
-  <si>
     <t>Début de la création de la structures de fichers</t>
   </si>
   <si>
     <t>Documentation sur les outils utillisé</t>
+  </si>
+  <si>
+    <t>Préparations des tâches du sprint (quoi faire, combien de temps)</t>
+  </si>
+  <si>
+    <t>Kick off</t>
+  </si>
+  <si>
+    <t>Documentation de Projet et shémas de la databse</t>
+  </si>
+  <si>
+    <t>Cette journée a été riche en documentation nous avons du décider quoi faire et comment et comprendre comment utilliser les outils que nous avons trouvé.</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -572,6 +581,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1204,12 +1221,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAF0F3-3EF4-4217-9640-9C9A8BC6D0F3}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1332,7 +1349,9 @@
         <v>15</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
@@ -1340,68 +1359,86 @@
         <v>16</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="9">
-        <f>SUM(D13:D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="9">
+        <f>SUM(D13:D19)</f>
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="8"/>
+      <c r="B21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
@@ -1417,40 +1454,40 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="9">
-        <f>SUM(D20:D24)</f>
+      <c r="D27" s="9">
+        <f>SUM(D22:D26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="8"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
@@ -1466,40 +1503,40 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="9">
-        <f>SUM(D27:D31)</f>
+      <c r="D34" s="9">
+        <f>SUM(D29:D33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="8"/>
+    <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
@@ -1515,40 +1552,40 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9">
-        <f>SUM(D34:D38)</f>
+      <c r="D41" s="9">
+        <f>SUM(D36:D40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="8"/>
+    <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
@@ -1564,40 +1601,40 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="9">
-        <f>SUM(D41:D45)</f>
+      <c r="D48" s="9">
+        <f>SUM(D43:D47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="8"/>
+    <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
@@ -1613,40 +1650,40 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="9">
-        <f>SUM(D48:D52)</f>
+      <c r="D55" s="9">
+        <f>SUM(D50:D54)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="8"/>
+    <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="25"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
@@ -1662,40 +1699,40 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="9">
-        <f>SUM(D55:D59)</f>
+      <c r="D62" s="9">
+        <f>SUM(D57:D61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="8"/>
+    <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
@@ -1711,40 +1748,40 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="9">
-        <f>SUM(D62:D66)</f>
+      <c r="D69" s="9">
+        <f>SUM(D64:D68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="8"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
@@ -1760,40 +1797,40 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="14"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="9">
-        <f>SUM(D69:D73)</f>
+      <c r="D76" s="9">
+        <f>SUM(D71:D75)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="8"/>
+    <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="25"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="24"/>
+    </row>
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="13"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
@@ -1809,115 +1846,129 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="14"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="14"/>
+      <c r="B83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="9">
-        <f>SUM(D76:D80)</f>
+      <c r="D83" s="9">
+        <f>SUM(D78:D82)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="3" t="s">
+    <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="25"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="24"/>
+    </row>
+    <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="12">
-        <f>D11+D18+D25+D32+D39+D46+D53+D60+D67+D74+D81</f>
-        <v>3.4499999999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="36" t="s">
+      <c r="D85" s="12">
+        <f>D11+D20+D27+D34+D41+D48+D55+D62+D69+D76+D83</f>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
+  <mergeCells count="84">
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A78:A84"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A71:A77"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A64:A70"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A57:A63"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A50:A56"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A43:A49"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A36:A42"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A22:A28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A13:A21"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1938,7 +1989,7 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D18">
+  <conditionalFormatting sqref="D13:D20">
     <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D13)))</formula>
     </cfRule>
@@ -1946,84 +1997,84 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D25">
+  <conditionalFormatting sqref="D22:D27">
     <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D32">
+  <conditionalFormatting sqref="D29:D34">
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D39">
+  <conditionalFormatting sqref="D36:D41">
     <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
+  <conditionalFormatting sqref="D43:D48">
     <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D53">
+  <conditionalFormatting sqref="D50:D55">
     <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55:D60">
+  <conditionalFormatting sqref="D57:D62">
     <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
+  <conditionalFormatting sqref="D64:D69">
     <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D74">
+  <conditionalFormatting sqref="D71:D76">
     <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D71)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D71)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76:D81">
+  <conditionalFormatting sqref="D78:D83">
     <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D78)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
+  <conditionalFormatting sqref="D85">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D85)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2035,8 +2086,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="47" max="16383" man="1"/>
-    <brk id="83" max="3" man="1"/>
+    <brk id="49" max="16383" man="1"/>
+    <brk id="85" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6882072-E204-4185-BBBF-6A6EC1E20933}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D383DBAA-5019-4FEA-BE83-BB5984A6000A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35520" yWindow="3000" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_Barras_Matias" sheetId="10" r:id="rId1"/>
@@ -20,8 +20,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal_Barras_Matias!$B:$D,Journal_Barras_Matias!$1:$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Journal_Barras_Matias!$A$1:$D$85</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -29,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,44 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
-  <si>
-    <t>Insérer les lignes au-dessus de celle-ci !</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Travail effectué</t>
-  </si>
-  <si>
-    <t>[H.h]</t>
-  </si>
-  <si>
-    <t>Temps</t>
-  </si>
-  <si>
-    <t>Total &gt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Réflexion personnelle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>↓↓↓</t>
-    </r>
-  </si>
-  <si>
-    <t>[no candidat]</t>
-  </si>
-  <si>
-    <t>Total général &gt;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <r>
       <t xml:space="preserve">Projet : </t>
@@ -108,6 +76,21 @@
     <t>Barras Matias</t>
   </si>
   <si>
+    <t>[no candidat]</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Travail effectué</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>[H.h]</t>
+  </si>
+  <si>
     <t>Documentation BusinessCase</t>
   </si>
   <si>
@@ -115,6 +98,22 @@
   </si>
   <si>
     <t>Discution client</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Réflexion personnelle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↓↓↓</t>
+    </r>
+  </si>
+  <si>
+    <t>Total &gt;</t>
   </si>
   <si>
     <t>Cette après-midi c'est bien passé mais faire de la documentation reste moin motivant que codée.</t>
@@ -126,22 +125,31 @@
     <t>Création du kanban</t>
   </si>
   <si>
+    <t>Kick off</t>
+  </si>
+  <si>
+    <t>Préparations des tâches du sprint (quoi faire, combien de temps)</t>
+  </si>
+  <si>
     <t>Début de la création de la structures de fichers</t>
   </si>
   <si>
     <t>Documentation sur les outils utillisé</t>
   </si>
   <si>
-    <t>Préparations des tâches du sprint (quoi faire, combien de temps)</t>
-  </si>
-  <si>
-    <t>Kick off</t>
-  </si>
-  <si>
     <t>Documentation de Projet et shémas de la databse</t>
   </si>
   <si>
     <t>Cette journée a été riche en documentation nous avons du décider quoi faire et comment et comprendre comment utilliser les outils que nous avons trouvé.</t>
+  </si>
+  <si>
+    <t>Total général &gt;</t>
+  </si>
+  <si>
+    <t>Insérer les lignes au-dessus de celle-ci !</t>
+  </si>
+  <si>
+    <t>Création du scripte pour extraire le texte et teste d'autres solution (écheque)</t>
   </si>
 </sst>
 </file>
@@ -487,14 +495,74 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -504,23 +572,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -535,60 +595,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -871,6 +879,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,10 +1235,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAF0F3-3EF4-4217-9640-9C9A8BC6D0F3}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1239,94 +1251,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>45996</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
-        <v>45996</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="18"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="25"/>
       <c r="D8" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D6:D10)</f>
@@ -1334,92 +1346,92 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="16"/>
+      <c r="B13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="18"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="18"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="18"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="25"/>
       <c r="D19" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20" s="9">
         <f>SUM(D13:D19)</f>
@@ -1427,99 +1439,103 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" s="9">
         <f>SUM(D22:D26)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D34" s="9">
         <f>SUM(D29:D33)</f>
@@ -1527,48 +1543,48 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D41" s="9">
         <f>SUM(D36:D40)</f>
@@ -1576,48 +1592,48 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D48" s="9">
         <f>SUM(D43:D47)</f>
@@ -1625,48 +1641,48 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D55" s="9">
         <f>SUM(D50:D54)</f>
@@ -1674,48 +1690,48 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D62" s="9">
         <f>SUM(D57:D61)</f>
@@ -1723,48 +1739,48 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="24"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="16"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D69" s="9">
         <f>SUM(D64:D68)</f>
@@ -1772,48 +1788,48 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D76" s="9">
         <f>SUM(D71:D75)</f>
@@ -1821,48 +1837,48 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="16"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="14"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D83" s="9">
         <f>SUM(D78:D82)</f>
@@ -1870,29 +1886,29 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="24"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
       <c r="B85" s="10"/>
       <c r="C85" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D85" s="12">
         <f>D11+D20+D27+D34+D41+D48+D55+D62+D69+D76+D83</f>
-        <v>11.4</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
+      <c r="A86" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -2094,6 +2110,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2306,7 +2331,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -2317,16 +2342,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2345,23 +2369,13 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
     <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D383DBAA-5019-4FEA-BE83-BB5984A6000A}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A8252C1-D818-4050-AD15-B17E92B420CC}"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="3000" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_Barras_Matias" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <r>
       <t xml:space="preserve">Projet : </t>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>Création du scripte pour extraire le texte et teste d'autres solution (écheque)</t>
+  </si>
+  <si>
+    <t>Création des dockerfiles ajout dans le docker compose et créations des routes du backend</t>
+  </si>
+  <si>
+    <t>Documentation et tests</t>
+  </si>
+  <si>
+    <t>Ce sprint a été très dure un début avec beaucoup de tests non concluant ce qui n'était pas très motivant cel a été emplifier du fait que j'était malade mais une fois la solution trouvé j'ai pu m'attaquer a des choses plus "tranquille" ce qui a été mieux</t>
   </si>
 </sst>
 </file>
@@ -495,6 +504,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -527,76 +600,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1236,9 +1245,9 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B14" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:C22"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1251,89 +1260,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="36">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="7">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1346,87 +1355,87 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1439,49 +1448,57 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="7">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="8">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1490,47 +1507,49 @@
       </c>
       <c r="D27" s="9">
         <f>SUM(D22:D26)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1543,43 +1562,43 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
@@ -1592,43 +1611,43 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1641,43 +1660,43 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1690,43 +1709,43 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
@@ -1739,43 +1758,43 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="2" t="s">
         <v>10</v>
       </c>
@@ -1788,43 +1807,43 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
         <v>10</v>
       </c>
@@ -1837,43 +1856,43 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="37"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
@@ -1886,10 +1905,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="37"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
@@ -1899,92 +1918,19 @@
       </c>
       <c r="D85" s="12">
         <f>D11+D20+D27+D34+D41+D48+D55+D62+D69+D76+D83</f>
-        <v>18.399999999999999</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1996,6 +1942,79 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:D84"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2110,15 +2129,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2331,6 +2341,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2343,14 +2362,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2369,6 +2380,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A8252C1-D818-4050-AD15-B17E92B420CC}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F68014-2555-487A-8CEB-D19288274A4A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,10 +155,10 @@
     <t>Création des dockerfiles ajout dans le docker compose et créations des routes du backend</t>
   </si>
   <si>
-    <t>Documentation et tests</t>
-  </si>
-  <si>
     <t>Ce sprint a été très dure un début avec beaucoup de tests non concluant ce qui n'était pas très motivant cel a été emplifier du fait que j'était malade mais une fois la solution trouvé j'ai pu m'attaquer a des choses plus "tranquille" ce qui a été mieux</t>
+  </si>
+  <si>
+    <t>Documentation (maquette et shémas)</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1247,7 @@
     <sheetView tabSelected="1" topLeftCell="B14" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1478,7 +1478,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="8">
@@ -1513,7 +1513,7 @@
     <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>

--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F68014-2555-487A-8CEB-D19288274A4A}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{946F83E3-07D0-4C2A-879A-4C919AF1DFC8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <r>
       <t xml:space="preserve">Projet : </t>
@@ -155,10 +155,13 @@
     <t>Création des dockerfiles ajout dans le docker compose et créations des routes du backend</t>
   </si>
   <si>
-    <t>Ce sprint a été très dure un début avec beaucoup de tests non concluant ce qui n'était pas très motivant cel a été emplifier du fait que j'était malade mais une fois la solution trouvé j'ai pu m'attaquer a des choses plus "tranquille" ce qui a été mieux</t>
-  </si>
-  <si>
     <t>Documentation (maquette et shémas)</t>
+  </si>
+  <si>
+    <t>Cette journée a été éprouvante je n'ai trouver aucune solution fonctionnelle mais a par cela le backend a été terminer ce qui ma remotivé.</t>
+  </si>
+  <si>
+    <t>Ce sprint a été très dure un début avec beaucoup de tests non concluant ce qui n'était pas très motivant cela été emplifier du fait que j'était malade mais une fois la solution trouvé j'ai pu m'attaquer a la documentation ce qui était beaucoup plus tranquille.</t>
   </si>
 </sst>
 </file>
@@ -504,108 +507,108 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1244,10 +1247,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAF0F3-3EF4-4217-9640-9C9A8BC6D0F3}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24:C24"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1260,89 +1263,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1355,87 +1358,87 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1448,57 +1451,55 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="29">
+        <v>46009</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="7">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="8">
-        <v>3.5</v>
-      </c>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1507,49 +1508,59 @@
       </c>
       <c r="D27" s="9">
         <f>SUM(D22:D26)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>46009</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1558,47 +1569,49 @@
       </c>
       <c r="D34" s="9">
         <f>SUM(D29:D33)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
@@ -1611,43 +1624,43 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1660,43 +1673,43 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1709,43 +1722,43 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
@@ -1758,43 +1771,43 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2" t="s">
         <v>10</v>
       </c>
@@ -1807,43 +1820,43 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="2" t="s">
         <v>10</v>
       </c>
@@ -1856,43 +1869,43 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
@@ -1905,10 +1918,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
@@ -1918,19 +1931,92 @@
       </c>
       <c r="D85" s="12">
         <f>D11+D20+D27+D34+D41+D48+D55+D62+D69+D76+D83</f>
-        <v>23.4</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1942,79 +2028,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:D84"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2129,6 +2142,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2341,15 +2363,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2362,6 +2375,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2380,14 +2401,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{946F83E3-07D0-4C2A-879A-4C919AF1DFC8}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EADDEF3B-9478-4DE1-B5AE-73531EE3993A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <r>
       <t xml:space="preserve">Projet : </t>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Ce sprint a été très dure un début avec beaucoup de tests non concluant ce qui n'était pas très motivant cela été emplifier du fait que j'était malade mais une fois la solution trouvé j'ai pu m'attaquer a la documentation ce qui était beaucoup plus tranquille.</t>
+  </si>
+  <si>
+    <t>Création du petit jeux</t>
+  </si>
+  <si>
+    <t>J'ai du trouver quoi faire et faire un petit jeux en html css js ceci était plutôt simpatique.</t>
+  </si>
+  <si>
+    <t>Finition du petit jeux avec intégration de la mannette</t>
   </si>
 </sst>
 </file>
@@ -507,6 +516,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -539,76 +612,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1248,9 +1257,9 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1263,89 +1272,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="36">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="7">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1358,87 +1367,87 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1451,55 +1460,55 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="14">
         <v>46009</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1512,55 +1521,55 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="14">
         <v>46009</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1573,45 +1582,51 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="14">
+        <v>46031</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
@@ -1620,47 +1635,53 @@
       </c>
       <c r="D41" s="9">
         <f>SUM(D36:D40)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1669,47 +1690,47 @@
       </c>
       <c r="D48" s="9">
         <f>SUM(D43:D47)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1722,43 +1743,43 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
@@ -1771,43 +1792,43 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="2" t="s">
         <v>10</v>
       </c>
@@ -1820,43 +1841,43 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
         <v>10</v>
       </c>
@@ -1869,43 +1890,43 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="37"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
@@ -1918,10 +1939,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="37"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
@@ -1931,92 +1952,19 @@
       </c>
       <c r="D85" s="12">
         <f>D11+D20+D27+D34+D41+D48+D55+D62+D69+D76+D83</f>
-        <v>27.4</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2028,6 +1976,79 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:D84"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2142,15 +2163,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2363,6 +2375,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2375,14 +2396,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2401,6 +2414,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EADDEF3B-9478-4DE1-B5AE-73531EE3993A}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F739BAAF-DBBB-4A83-BF3F-E29C0B845453}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <r>
       <t xml:space="preserve">Projet : </t>
@@ -170,7 +170,10 @@
     <t>J'ai du trouver quoi faire et faire un petit jeux en html css js ceci était plutôt simpatique.</t>
   </si>
   <si>
-    <t>Finition du petit jeux avec intégration de la mannette</t>
+    <t>Finition du petit jeux avec intégration de la mannette et backend</t>
+  </si>
+  <si>
+    <t>Documentation et Websumary</t>
   </si>
 </sst>
 </file>
@@ -516,108 +519,108 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1259,7 +1262,7 @@
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1272,89 +1275,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1367,87 +1370,87 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1460,55 +1463,55 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="29">
         <v>46009</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1521,55 +1524,55 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
+      <c r="A29" s="29">
         <v>46009</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1582,51 +1585,51 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
+      <c r="A36" s="29">
         <v>46031</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
@@ -1639,49 +1642,53 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="34"/>
+      <c r="B42" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1690,47 +1697,47 @@
       </c>
       <c r="D48" s="9">
         <f>SUM(D43:D47)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1743,43 +1750,43 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
@@ -1792,43 +1799,43 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2" t="s">
         <v>10</v>
       </c>
@@ -1841,43 +1848,43 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="2" t="s">
         <v>10</v>
       </c>
@@ -1890,43 +1897,43 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
@@ -1939,10 +1946,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
@@ -1952,19 +1959,92 @@
       </c>
       <c r="D85" s="12">
         <f>D11+D20+D27+D34+D41+D48+D55+D62+D69+D76+D83</f>
-        <v>33.4</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -1976,79 +2056,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:D84"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2163,6 +2170,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2375,15 +2391,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2396,6 +2403,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2414,14 +2429,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F739BAAF-DBBB-4A83-BF3F-E29C0B845453}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA90DA8-AC6E-47D9-87FF-82CA1652676A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_Barras_Matias" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <r>
       <t xml:space="preserve">Projet : </t>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>Documentation et Websumary</t>
+  </si>
+  <si>
+    <t>J'ai trouvé cette journé productive et sympatique a faire malgré la documentation le fait de voir de l'avancement sur nos problèmes principaux a été très motivant.</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Websummary</t>
+  </si>
+  <si>
+    <t>Cette journée ma permis d'avancer sur la documentation pendant que mes collégue términais et améliorait le code existant</t>
   </si>
 </sst>
 </file>
@@ -519,6 +531,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -551,76 +627,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1260,9 +1272,9 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1275,89 +1287,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="36">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="7">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1370,87 +1382,87 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1463,55 +1475,55 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="14">
         <v>46009</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1524,55 +1536,55 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="14">
         <v>46009</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1585,51 +1597,51 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
+      <c r="A36" s="14">
         <v>46031</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
@@ -1642,53 +1654,55 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="14">
+        <v>46032</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="31"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1701,43 +1715,55 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="14">
+        <v>46037</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="8"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1746,47 +1772,49 @@
       </c>
       <c r="D55" s="9">
         <f>SUM(D50:D54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
@@ -1799,43 +1827,43 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="2" t="s">
         <v>10</v>
       </c>
@@ -1848,43 +1876,43 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
         <v>10</v>
       </c>
@@ -1897,43 +1925,43 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="37"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
@@ -1946,10 +1974,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="37"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
@@ -1959,92 +1987,19 @@
       </c>
       <c r="D85" s="12">
         <f>D11+D20+D27+D34+D41+D48+D55+D62+D69+D76+D83</f>
-        <v>39.4</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2056,6 +2011,79 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:D84"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2170,15 +2198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2391,6 +2410,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2403,14 +2431,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2429,6 +2449,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA90DA8-AC6E-47D9-87FF-82CA1652676A}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91F312C3-475C-4C59-9EEC-6EDDA994C172}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <r>
       <t xml:space="preserve">Projet : </t>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Cette journée ma permis d'avancer sur la documentation pendant que mes collégue términais et améliorait le code existant</t>
+  </si>
+  <si>
+    <t>Documentation et présentation</t>
+  </si>
+  <si>
+    <t>Présentation devant la classe</t>
+  </si>
+  <si>
+    <t>Cette dérnière journé a été tranquille j'ai pu finalisé ce que javais commencer pour pouvoir avec mon groupe rendre un travail que je pense le plus complet possible.</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1283,7 @@
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53:C53"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1784,16 +1793,26 @@
       <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="14">
+        <v>42385</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="C57" s="18"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="C58" s="20"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
@@ -1823,12 +1842,14 @@
       </c>
       <c r="D62" s="9">
         <f>SUM(D57:D61)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
-      <c r="B63" s="21"/>
+      <c r="B63" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="C63" s="22"/>
       <c r="D63" s="23"/>
     </row>
@@ -1987,7 +2008,7 @@
       </c>
       <c r="D85" s="12">
         <f>D11+D20+D27+D34+D41+D48+D55+D62+D69+D76+D83</f>
-        <v>43.4</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">

--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91F312C3-475C-4C59-9EEC-6EDDA994C172}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47C645AD-43E9-402F-8A11-568CB72CB8F2}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal_Barras_Matias" sheetId="10" r:id="rId1"/>
@@ -540,108 +540,108 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1281,9 +1281,9 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64:C64"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1296,89 +1296,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="20">
         <v>45996</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1391,87 +1391,87 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="29">
         <v>46003</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1484,55 +1484,55 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="29">
         <v>46009</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1545,55 +1545,55 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
-        <v>46009</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="29">
+        <v>46010</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1606,51 +1606,51 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
+      <c r="A36" s="29">
         <v>46031</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
@@ -1663,55 +1663,55 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="34"/>
+      <c r="B42" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
+      <c r="A43" s="29">
         <v>46032</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="20"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1724,55 +1724,55 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
+      <c r="A50" s="29">
         <v>46037</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1785,55 +1785,55 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
+      <c r="A57" s="29">
         <v>42385</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="18"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="19" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="20"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
@@ -1846,45 +1846,45 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="21" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2" t="s">
         <v>10</v>
       </c>
@@ -1897,43 +1897,43 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="2" t="s">
         <v>10</v>
       </c>
@@ -1946,43 +1946,43 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="37"/>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
@@ -1995,10 +1995,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="23"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
@@ -2012,15 +2012,88 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2032,79 +2105,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:D84"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2219,6 +2219,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2431,15 +2440,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2452,6 +2452,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2470,14 +2478,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>

--- a/documentation/3_1_Journal_Barras_Matias.xlsx
+++ b/documentation/3_1_Journal_Barras_Matias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/matias_barras_studentfr_ch/Documents/Dossier de formation/5-Modules/Développement/Module-306/306-G2-ArcadiaBox/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47C645AD-43E9-402F-8A11-568CB72CB8F2}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{C68E2980-A969-4E78-98D4-6A7237E3E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1896045B-2312-4A5A-B9F9-FE33DA079FE8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,6 +540,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -572,76 +636,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1281,9 +1281,9 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD5"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1296,89 +1296,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="36">
         <v>45996</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="7">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1391,87 +1391,87 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="14">
         <v>46003</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="8">
         <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1484,55 +1484,55 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29">
+      <c r="A22" s="14">
         <v>46009</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1545,55 +1545,55 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="14">
         <v>46010</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1606,51 +1606,51 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29">
-        <v>46031</v>
-      </c>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="14">
+        <v>46030</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
@@ -1663,55 +1663,55 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29">
-        <v>46032</v>
-      </c>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="14">
+        <v>46031</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="31"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1724,55 +1724,55 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="16"/>
+      <c r="B49" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29">
+      <c r="A50" s="14">
         <v>46037</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="31"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="24" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1785,55 +1785,55 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29">
+      <c r="A57" s="14">
         <v>42385</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="31"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24" t="s">
+      <c r="A58" s="15"/>
+      <c r="B58" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
@@ -1846,45 +1846,45 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35" t="s">
+      <c r="A63" s="16"/>
+      <c r="B63" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="2" t="s">
         <v>10</v>
       </c>
@@ -1897,43 +1897,43 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="28"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="2" t="s">
         <v>10</v>
       </c>
@@ -1946,43 +1946,43 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="37"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="29"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
         <v>10</v>
       </c>
@@ -1995,10 +1995,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="37"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
@@ -2012,88 +2012,15 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="38" t="s">
+      <c r="A86" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:A5"/>
@@ -2105,6 +2032,79 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B84:D84"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D11">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Terminé">
@@ -2219,15 +2219,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3865b25f2bf2a035dbe7787239b3f11c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f9f7ddd2530d56a17ab9424d0abda" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -2440,6 +2431,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2452,14 +2452,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEF82B-2BAE-481D-A319-B09ADD6915E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2478,6 +2470,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C0AFF7-6D45-4588-A3CE-0506D82134A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CED954-0C0B-4246-88BC-C0C5C061E08E}">
   <ds:schemaRefs>
